--- a/artfynd/A 3647-2019.xlsx
+++ b/artfynd/A 3647-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111271068</v>
+        <v>111271296</v>
       </c>
       <c r="B2" t="n">
         <v>78578</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>473238.8676645419</v>
+        <v>473220.1559155915</v>
       </c>
       <c r="R2" t="n">
-        <v>6863638.079474191</v>
+        <v>6863539.25170773</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111271055</v>
+        <v>111271923</v>
       </c>
       <c r="B3" t="n">
-        <v>78579</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2081</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>473238.8676645419</v>
+        <v>473118.5439814709</v>
       </c>
       <c r="R3" t="n">
-        <v>6863638.079474191</v>
+        <v>6863582.939962601</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -880,6 +880,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111271723</v>
+        <v>111270892</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>473140.3516782348</v>
+        <v>473239.9383552746</v>
       </c>
       <c r="R4" t="n">
-        <v>6863595.022241795</v>
+        <v>6863714.420922431</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1019,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111271029</v>
+        <v>111270939</v>
       </c>
       <c r="B5" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1040,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1132,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111272343</v>
+        <v>111271723</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1149,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>473387.8703240218</v>
+        <v>473140.3516782348</v>
       </c>
       <c r="R6" t="n">
-        <v>6863558.206130736</v>
+        <v>6863595.022241795</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1245,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111272062</v>
+        <v>111271309</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>78579</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1262,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>473156.3705774212</v>
+        <v>473221.4734201821</v>
       </c>
       <c r="R7" t="n">
-        <v>6863531.269191674</v>
+        <v>6863586.84377678</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1358,7 +1363,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111270784</v>
+        <v>111271068</v>
       </c>
       <c r="B8" t="n">
         <v>78578</v>
@@ -1399,10 +1404,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>473239.9383552746</v>
+        <v>473238.8676645419</v>
       </c>
       <c r="R8" t="n">
-        <v>6863714.420922431</v>
+        <v>6863638.079474191</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1584,7 +1589,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111271923</v>
+        <v>111270747</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1625,10 +1630,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>473118.5439814709</v>
+        <v>473194.7999623233</v>
       </c>
       <c r="R10" t="n">
-        <v>6863582.939962601</v>
+        <v>6863736.454484907</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1675,7 +1680,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Tre blommande.</t>
+          <t>Sex blommande.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1702,10 +1707,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111272292</v>
+        <v>111271029</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1718,21 +1723,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1743,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>473321.1690919191</v>
+        <v>473229.5908188519</v>
       </c>
       <c r="R11" t="n">
-        <v>6863539.403128584</v>
+        <v>6863658.889402787</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1815,10 +1820,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111270939</v>
+        <v>111270596</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1827,25 +1832,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1856,10 +1861,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>473229.5908188519</v>
+        <v>473184.8241620373</v>
       </c>
       <c r="R12" t="n">
-        <v>6863658.889402787</v>
+        <v>6863788.37406126</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1902,6 +1907,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Fem blommande.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1928,10 +1938,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111271176</v>
+        <v>111272062</v>
       </c>
       <c r="B13" t="n">
-        <v>78579</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1940,25 +1950,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2081</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1969,10 +1979,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>473227.9160841404</v>
+        <v>473156.3705774212</v>
       </c>
       <c r="R13" t="n">
-        <v>6863625.911539786</v>
+        <v>6863531.269191674</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2041,10 +2051,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111270755</v>
+        <v>111272375</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>96251</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2053,25 +2063,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>220093</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2082,10 +2092,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>473194.7999623233</v>
+        <v>473400.7315261344</v>
       </c>
       <c r="R14" t="n">
-        <v>6863736.454484907</v>
+        <v>6863573.187783281</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2272,10 +2282,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111271309</v>
+        <v>111272292</v>
       </c>
       <c r="B16" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2288,21 +2298,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2313,10 +2323,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>473221.4734201821</v>
+        <v>473321.1690919191</v>
       </c>
       <c r="R16" t="n">
-        <v>6863586.84377678</v>
+        <v>6863539.403128584</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2385,10 +2395,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111270596</v>
+        <v>111272343</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2397,25 +2407,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2426,10 +2436,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>473184.8241620373</v>
+        <v>473387.8703240218</v>
       </c>
       <c r="R17" t="n">
-        <v>6863788.37406126</v>
+        <v>6863558.206130736</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2472,11 +2482,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Fem blommande.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2503,7 +2508,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111271296</v>
+        <v>111270755</v>
       </c>
       <c r="B18" t="n">
         <v>78578</v>
@@ -2544,10 +2549,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>473220.1559155915</v>
+        <v>473194.7999623233</v>
       </c>
       <c r="R18" t="n">
-        <v>6863539.25170773</v>
+        <v>6863736.454484907</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2616,10 +2621,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111271588</v>
+        <v>111271176</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2632,21 +2637,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2657,10 +2662,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>473140.3516782348</v>
+        <v>473227.9160841404</v>
       </c>
       <c r="R19" t="n">
-        <v>6863595.022241795</v>
+        <v>6863625.911539786</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2729,10 +2734,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111271382</v>
+        <v>111271588</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2741,25 +2746,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2770,10 +2775,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>473167.6377000402</v>
+        <v>473140.3516782348</v>
       </c>
       <c r="R20" t="n">
-        <v>6863583.496200636</v>
+        <v>6863595.022241795</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2816,11 +2821,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2847,10 +2847,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111270747</v>
+        <v>111271055</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>78579</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2859,25 +2859,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>2081</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>473194.7999623233</v>
+        <v>473238.8676645419</v>
       </c>
       <c r="R21" t="n">
-        <v>6863736.454484907</v>
+        <v>6863638.079474191</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2934,11 +2934,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Sex blommande.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2965,10 +2960,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111272375</v>
+        <v>111271382</v>
       </c>
       <c r="B22" t="n">
-        <v>96251</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2977,25 +2972,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220093</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3006,10 +3001,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>473400.7315261344</v>
+        <v>473167.6377000402</v>
       </c>
       <c r="R22" t="n">
-        <v>6863573.187783281</v>
+        <v>6863583.496200636</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3052,6 +3047,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 3647-2019.xlsx
+++ b/artfynd/A 3647-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111271296</v>
+        <v>111271309</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>473220.1559155915</v>
+        <v>473221.4734201821</v>
       </c>
       <c r="R2" t="n">
-        <v>6863539.25170773</v>
+        <v>6863586.84377678</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111271923</v>
+        <v>111270596</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>473118.5439814709</v>
+        <v>473184.8241620373</v>
       </c>
       <c r="R3" t="n">
-        <v>6863582.939962601</v>
+        <v>6863788.37406126</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -884,7 +884,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Tre blommande.</t>
+          <t>Fem blommande.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111270892</v>
+        <v>111271176</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,21 +927,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>473239.9383552746</v>
+        <v>473227.9160841404</v>
       </c>
       <c r="R4" t="n">
-        <v>6863714.420922431</v>
+        <v>6863625.911539786</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111270939</v>
+        <v>111270755</v>
       </c>
       <c r="B5" t="n">
         <v>78578</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>473229.5908188519</v>
+        <v>473194.7999623233</v>
       </c>
       <c r="R5" t="n">
-        <v>6863658.889402787</v>
+        <v>6863736.454484907</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111271723</v>
+        <v>111271821</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1224,6 +1224,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111271309</v>
+        <v>111271068</v>
       </c>
       <c r="B7" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,21 +1271,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>473221.4734201821</v>
+        <v>473238.8676645419</v>
       </c>
       <c r="R7" t="n">
-        <v>6863586.84377678</v>
+        <v>6863638.079474191</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1363,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111271068</v>
+        <v>111271061</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1375,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1476,10 +1481,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111271061</v>
+        <v>111272292</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1488,25 +1493,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>473238.8676645419</v>
+        <v>473321.1690919191</v>
       </c>
       <c r="R9" t="n">
-        <v>6863638.079474191</v>
+        <v>6863539.403128584</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1589,7 +1594,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111270747</v>
+        <v>111271382</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1630,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>473194.7999623233</v>
+        <v>473167.6377000402</v>
       </c>
       <c r="R10" t="n">
-        <v>6863736.454484907</v>
+        <v>6863583.496200636</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1680,7 +1685,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Sex blommande.</t>
+          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1707,7 +1712,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111271029</v>
+        <v>111271055</v>
       </c>
       <c r="B11" t="n">
         <v>78579</v>
@@ -1748,10 +1753,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>473229.5908188519</v>
+        <v>473238.8676645419</v>
       </c>
       <c r="R11" t="n">
-        <v>6863658.889402787</v>
+        <v>6863638.079474191</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1820,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111270596</v>
+        <v>111270939</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1832,25 +1837,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1861,10 +1866,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>473184.8241620373</v>
+        <v>473229.5908188519</v>
       </c>
       <c r="R12" t="n">
-        <v>6863788.37406126</v>
+        <v>6863658.889402787</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1907,11 +1912,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Fem blommande.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2164,10 +2164,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111270559</v>
+        <v>111270892</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2176,25 +2176,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>473167.8634183492</v>
+        <v>473239.9383552746</v>
       </c>
       <c r="R15" t="n">
-        <v>6863792.277629613</v>
+        <v>6863714.420922431</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2251,11 +2251,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Två blommande.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2282,7 +2277,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111272292</v>
+        <v>111271296</v>
       </c>
       <c r="B16" t="n">
         <v>78578</v>
@@ -2323,10 +2318,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>473321.1690919191</v>
+        <v>473220.1559155915</v>
       </c>
       <c r="R16" t="n">
-        <v>6863539.403128584</v>
+        <v>6863539.25170773</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2508,10 +2503,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111270755</v>
+        <v>111270747</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2520,25 +2515,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2595,6 +2590,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Sex blommande.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2621,10 +2621,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111271176</v>
+        <v>111271923</v>
       </c>
       <c r="B19" t="n">
-        <v>78579</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2633,25 +2633,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>473227.9160841404</v>
+        <v>473118.5439814709</v>
       </c>
       <c r="R19" t="n">
-        <v>6863625.911539786</v>
+        <v>6863582.939962601</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2708,6 +2708,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2734,10 +2739,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111271588</v>
+        <v>111271029</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2750,21 +2755,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2775,10 +2780,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>473140.3516782348</v>
+        <v>473229.5908188519</v>
       </c>
       <c r="R20" t="n">
-        <v>6863595.022241795</v>
+        <v>6863658.889402787</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2847,10 +2852,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111271055</v>
+        <v>111270559</v>
       </c>
       <c r="B21" t="n">
-        <v>78579</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2859,25 +2864,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2081</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2888,10 +2893,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>473238.8676645419</v>
+        <v>473167.8634183492</v>
       </c>
       <c r="R21" t="n">
-        <v>6863638.079474191</v>
+        <v>6863792.277629613</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2934,6 +2939,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Två blommande.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2960,10 +2970,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111271382</v>
+        <v>111271588</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2972,25 +2982,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3001,10 +3011,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>473167.6377000402</v>
+        <v>473140.3516782348</v>
       </c>
       <c r="R22" t="n">
-        <v>6863583.496200636</v>
+        <v>6863595.022241795</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3047,11 +3057,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 3647-2019.xlsx
+++ b/artfynd/A 3647-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111271309</v>
+        <v>111272062</v>
       </c>
       <c r="B2" t="n">
-        <v>78579</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>473221.4734201821</v>
+        <v>473156.3705774212</v>
       </c>
       <c r="R2" t="n">
-        <v>6863586.84377678</v>
+        <v>6863531.269191674</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111270596</v>
+        <v>111271821</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>473184.8241620373</v>
+        <v>473140.3516782348</v>
       </c>
       <c r="R3" t="n">
-        <v>6863788.37406126</v>
+        <v>6863595.022241795</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -884,7 +884,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Fem blommande.</t>
+          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111271176</v>
+        <v>111271296</v>
       </c>
       <c r="B4" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,21 +927,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>473227.9160841404</v>
+        <v>473220.1559155915</v>
       </c>
       <c r="R4" t="n">
-        <v>6863625.911539786</v>
+        <v>6863539.25170773</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111270755</v>
+        <v>111270939</v>
       </c>
       <c r="B5" t="n">
         <v>78578</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>473194.7999623233</v>
+        <v>473229.5908188519</v>
       </c>
       <c r="R5" t="n">
-        <v>6863736.454484907</v>
+        <v>6863658.889402787</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111271821</v>
+        <v>111271055</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>78579</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,25 +1149,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>2081</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>473140.3516782348</v>
+        <v>473238.8676645419</v>
       </c>
       <c r="R6" t="n">
-        <v>6863595.022241795</v>
+        <v>6863638.079474191</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1224,11 +1224,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111271068</v>
+        <v>111271923</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,25 +1262,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>473238.8676645419</v>
+        <v>473118.5439814709</v>
       </c>
       <c r="R7" t="n">
-        <v>6863638.079474191</v>
+        <v>6863582.939962601</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1342,6 +1337,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111271061</v>
+        <v>111271141</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1481,10 +1481,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111272292</v>
+        <v>111270747</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1493,25 +1493,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>473321.1690919191</v>
+        <v>473194.7999623233</v>
       </c>
       <c r="R9" t="n">
-        <v>6863539.403128584</v>
+        <v>6863736.454484907</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1568,6 +1568,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Sex blommande.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1594,7 +1599,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111271382</v>
+        <v>111271061</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1635,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>473167.6377000402</v>
+        <v>473238.8676645419</v>
       </c>
       <c r="R10" t="n">
-        <v>6863583.496200636</v>
+        <v>6863638.079474191</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1681,11 +1686,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1712,10 +1712,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111271055</v>
+        <v>111270784</v>
       </c>
       <c r="B11" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1728,21 +1728,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>473238.8676645419</v>
+        <v>473239.9383552746</v>
       </c>
       <c r="R11" t="n">
-        <v>6863638.079474191</v>
+        <v>6863714.420922431</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111270939</v>
+        <v>111271382</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,25 +1837,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1866,10 +1866,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>473229.5908188519</v>
+        <v>473167.6377000402</v>
       </c>
       <c r="R12" t="n">
-        <v>6863658.889402787</v>
+        <v>6863583.496200636</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1912,6 +1912,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1938,10 +1943,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111272062</v>
+        <v>111271588</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1950,25 +1955,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1979,10 +1984,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>473156.3705774212</v>
+        <v>473140.3516782348</v>
       </c>
       <c r="R13" t="n">
-        <v>6863531.269191674</v>
+        <v>6863595.022241795</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2051,10 +2056,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111272375</v>
+        <v>111272343</v>
       </c>
       <c r="B14" t="n">
-        <v>96251</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2063,25 +2068,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220093</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2092,10 +2097,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>473400.7315261344</v>
+        <v>473387.8703240218</v>
       </c>
       <c r="R14" t="n">
-        <v>6863573.187783281</v>
+        <v>6863558.206130736</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2164,10 +2169,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111270892</v>
+        <v>111272375</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>96251</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2176,25 +2181,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>220093</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2205,10 +2210,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>473239.9383552746</v>
+        <v>473400.7315261344</v>
       </c>
       <c r="R15" t="n">
-        <v>6863714.420922431</v>
+        <v>6863573.187783281</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2277,10 +2282,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111271296</v>
+        <v>111270596</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2289,25 +2294,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2318,10 +2323,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>473220.1559155915</v>
+        <v>473184.8241620373</v>
       </c>
       <c r="R16" t="n">
-        <v>6863539.25170773</v>
+        <v>6863788.37406126</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2364,6 +2369,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Fem blommande.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2390,10 +2400,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111272343</v>
+        <v>111271309</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2406,21 +2416,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2431,10 +2441,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>473387.8703240218</v>
+        <v>473221.4734201821</v>
       </c>
       <c r="R17" t="n">
-        <v>6863558.206130736</v>
+        <v>6863586.84377678</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2503,10 +2513,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111270747</v>
+        <v>111271176</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>78579</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2515,25 +2525,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>2081</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2544,10 +2554,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>473194.7999623233</v>
+        <v>473227.9160841404</v>
       </c>
       <c r="R18" t="n">
-        <v>6863736.454484907</v>
+        <v>6863625.911539786</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2590,11 +2600,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Sex blommande.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2621,10 +2626,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111271923</v>
+        <v>111271029</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>78579</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2633,25 +2638,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>2081</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2662,10 +2667,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>473118.5439814709</v>
+        <v>473229.5908188519</v>
       </c>
       <c r="R19" t="n">
-        <v>6863582.939962601</v>
+        <v>6863658.889402787</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2708,11 +2713,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Tre blommande.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2739,10 +2739,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111271029</v>
+        <v>111272292</v>
       </c>
       <c r="B20" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2755,21 +2755,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2780,10 +2780,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>473229.5908188519</v>
+        <v>473321.1690919191</v>
       </c>
       <c r="R20" t="n">
-        <v>6863658.889402787</v>
+        <v>6863539.403128584</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2852,10 +2852,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111270559</v>
+        <v>111270755</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2864,25 +2864,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2893,10 +2893,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>473167.8634183492</v>
+        <v>473194.7999623233</v>
       </c>
       <c r="R21" t="n">
-        <v>6863792.277629613</v>
+        <v>6863736.454484907</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2939,11 +2939,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Två blommande.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2970,10 +2965,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111271588</v>
+        <v>111270559</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2982,25 +2977,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3011,10 +3006,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>473140.3516782348</v>
+        <v>473167.8634183492</v>
       </c>
       <c r="R22" t="n">
-        <v>6863595.022241795</v>
+        <v>6863792.277629613</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -3057,6 +3052,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Två blommande.</t>
         </is>
       </c>
       <c r="AD22" t="b">
